--- a/data cleanin/ISDA DATA.xlsx
+++ b/data cleanin/ISDA DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joana\Documents\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320B5910-2464-42F7-9B1E-FCE2FE822655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A4FD93-3110-4550-B088-576659DF190A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11730" yWindow="165" windowWidth="8460" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>LAT</t>
   </si>
@@ -256,6 +256,51 @@
   </si>
   <si>
     <t>Lupembe, Tanzania</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>TEXTURE</t>
+  </si>
+  <si>
+    <t>ZINC</t>
+  </si>
+  <si>
+    <t>IRON</t>
+  </si>
+  <si>
+    <t>CARBON</t>
+  </si>
+  <si>
+    <t>STONINESS</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Sandy Clay Loam</t>
+  </si>
+  <si>
+    <t>DEPTH</t>
+  </si>
+  <si>
+    <t>MAGNESIUM</t>
+  </si>
+  <si>
+    <t>CALCIUM</t>
+  </si>
+  <si>
+    <t>ALUMINIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandy Loam </t>
   </si>
 </sst>
 </file>
@@ -573,15 +618,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:P97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +644,47 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O1" t="s">
+        <v>87</v>
+      </c>
+      <c r="P1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-16.75</v>
       </c>
@@ -602,8 +694,47 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>0.8</v>
+      </c>
+      <c r="E2">
+        <v>12.5</v>
+      </c>
+      <c r="F2">
+        <v>108.9</v>
+      </c>
+      <c r="G2">
+        <v>6.7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J2">
+        <v>65.7</v>
+      </c>
+      <c r="K2">
+        <v>26.1</v>
+      </c>
+      <c r="L2">
+        <v>297.89999999999998</v>
+      </c>
+      <c r="M2">
+        <v>72.7</v>
+      </c>
+      <c r="N2">
+        <v>1211</v>
+      </c>
+      <c r="O2">
+        <v>200</v>
+      </c>
+      <c r="P2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-16.75</v>
       </c>
@@ -613,8 +744,47 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>108.9</v>
+      </c>
+      <c r="G3">
+        <v>6.3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>72.7</v>
+      </c>
+      <c r="K3">
+        <v>29</v>
+      </c>
+      <c r="L3">
+        <v>199.3</v>
+      </c>
+      <c r="M3">
+        <v>72.7</v>
+      </c>
+      <c r="N3">
+        <v>734.1</v>
+      </c>
+      <c r="O3">
+        <v>200</v>
+      </c>
+      <c r="P3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-16.75</v>
       </c>
@@ -624,8 +794,47 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>11.2</v>
+      </c>
+      <c r="F4">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="G4">
+        <v>6.7</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4">
+        <v>1.7</v>
+      </c>
+      <c r="J4">
+        <v>72.7</v>
+      </c>
+      <c r="K4">
+        <v>26.1</v>
+      </c>
+      <c r="L4">
+        <v>329.3</v>
+      </c>
+      <c r="M4">
+        <v>48.4</v>
+      </c>
+      <c r="N4">
+        <v>1338.4</v>
+      </c>
+      <c r="O4">
+        <v>200</v>
+      </c>
+      <c r="P4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-16.75</v>
       </c>
@@ -635,8 +844,47 @@
       <c r="C5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>13.9</v>
+      </c>
+      <c r="F5">
+        <v>147.4</v>
+      </c>
+      <c r="G5">
+        <v>6.4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J5">
+        <v>65.7</v>
+      </c>
+      <c r="K5">
+        <v>23.5</v>
+      </c>
+      <c r="L5">
+        <v>329.3</v>
+      </c>
+      <c r="M5">
+        <v>53.6</v>
+      </c>
+      <c r="N5">
+        <v>1095.5999999999999</v>
+      </c>
+      <c r="O5">
+        <v>200</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-16.75</v>
       </c>
@@ -646,8 +894,47 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <v>13.9</v>
+      </c>
+      <c r="F6">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="G6">
+        <v>6.4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>65.7</v>
+      </c>
+      <c r="K6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L6">
+        <v>243.7</v>
+      </c>
+      <c r="M6">
+        <v>53.6</v>
+      </c>
+      <c r="N6">
+        <v>1095.5999999999999</v>
+      </c>
+      <c r="O6">
+        <v>200</v>
+      </c>
+      <c r="P6">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-16.75</v>
       </c>
@@ -657,8 +944,47 @@
       <c r="C7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1.2</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="F7">
+        <v>120.5</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7">
+        <v>3.1</v>
+      </c>
+      <c r="J7">
+        <v>65.7</v>
+      </c>
+      <c r="K7">
+        <v>26.1</v>
+      </c>
+      <c r="L7">
+        <v>180.3</v>
+      </c>
+      <c r="M7">
+        <v>80.5</v>
+      </c>
+      <c r="N7">
+        <v>600.79999999999995</v>
+      </c>
+      <c r="O7">
+        <v>193</v>
+      </c>
+      <c r="P7">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-16.25</v>
       </c>
@@ -668,8 +994,47 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>0.9</v>
+      </c>
+      <c r="E8">
+        <v>11.2</v>
+      </c>
+      <c r="F8">
+        <v>120.5</v>
+      </c>
+      <c r="G8">
+        <v>6.4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>80.5</v>
+      </c>
+      <c r="K8">
+        <v>21.2</v>
+      </c>
+      <c r="L8">
+        <v>199.3</v>
+      </c>
+      <c r="M8">
+        <v>80.5</v>
+      </c>
+      <c r="N8">
+        <v>664.1</v>
+      </c>
+      <c r="O8">
+        <v>200</v>
+      </c>
+      <c r="P8">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-16.25</v>
       </c>
@@ -679,8 +1044,47 @@
       <c r="C9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>0.9</v>
+      </c>
+      <c r="E9">
+        <v>12.5</v>
+      </c>
+      <c r="F9">
+        <v>120.5</v>
+      </c>
+      <c r="G9">
+        <v>6.4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9">
+        <v>1.7</v>
+      </c>
+      <c r="J9">
+        <v>72.7</v>
+      </c>
+      <c r="K9">
+        <v>23.5</v>
+      </c>
+      <c r="L9">
+        <v>220.4</v>
+      </c>
+      <c r="M9">
+        <v>53.6</v>
+      </c>
+      <c r="N9">
+        <v>811.4</v>
+      </c>
+      <c r="O9">
+        <v>200</v>
+      </c>
+      <c r="P9">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-16.25</v>
       </c>
@@ -690,8 +1094,47 @@
       <c r="C10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E10">
+        <v>11.2</v>
+      </c>
+      <c r="F10">
+        <v>163</v>
+      </c>
+      <c r="G10">
+        <v>6.2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10">
+        <v>1.7</v>
+      </c>
+      <c r="J10">
+        <v>65.7</v>
+      </c>
+      <c r="K10">
+        <v>32.1</v>
+      </c>
+      <c r="L10">
+        <v>220.4</v>
+      </c>
+      <c r="M10">
+        <v>59.3</v>
+      </c>
+      <c r="N10">
+        <v>896.8</v>
+      </c>
+      <c r="O10">
+        <v>200</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-16.25</v>
       </c>
@@ -701,8 +1144,47 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>11.2</v>
+      </c>
+      <c r="F11">
+        <v>147.4</v>
+      </c>
+      <c r="G11">
+        <v>5.8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11">
+        <v>3.1</v>
+      </c>
+      <c r="J11">
+        <v>80.5</v>
+      </c>
+      <c r="K11">
+        <v>39.4</v>
+      </c>
+      <c r="L11">
+        <v>243.7</v>
+      </c>
+      <c r="M11">
+        <v>53.6</v>
+      </c>
+      <c r="N11">
+        <v>991.3</v>
+      </c>
+      <c r="O11">
+        <v>194</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-16.25</v>
       </c>
@@ -712,8 +1194,47 @@
       <c r="C12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>120.5</v>
+      </c>
+      <c r="G12">
+        <v>5.8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>3.1</v>
+      </c>
+      <c r="J12">
+        <v>72.7</v>
+      </c>
+      <c r="K12">
+        <v>23.5</v>
+      </c>
+      <c r="L12">
+        <v>120.5</v>
+      </c>
+      <c r="M12">
+        <v>163</v>
+      </c>
+      <c r="N12">
+        <v>664.1</v>
+      </c>
+      <c r="O12">
+        <v>200</v>
+      </c>
+      <c r="P12">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-16.25</v>
       </c>
@@ -723,8 +1244,47 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13">
+        <v>11.2</v>
+      </c>
+      <c r="F13">
+        <v>108.9</v>
+      </c>
+      <c r="G13">
+        <v>5.7</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13">
+        <v>3.5</v>
+      </c>
+      <c r="J13">
+        <v>65.7</v>
+      </c>
+      <c r="K13">
+        <v>23.5</v>
+      </c>
+      <c r="L13">
+        <v>180.3</v>
+      </c>
+      <c r="M13">
+        <v>180.3</v>
+      </c>
+      <c r="N13">
+        <v>664.1</v>
+      </c>
+      <c r="O13">
+        <v>200</v>
+      </c>
+      <c r="P13">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-15.75</v>
       </c>
@@ -734,8 +1294,47 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E14">
+        <v>11.2</v>
+      </c>
+      <c r="F14">
+        <v>180.3</v>
+      </c>
+      <c r="G14">
+        <v>6.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14">
+        <v>1.7</v>
+      </c>
+      <c r="J14">
+        <v>80.5</v>
+      </c>
+      <c r="K14">
+        <v>23.5</v>
+      </c>
+      <c r="L14">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="M14">
+        <v>59.3</v>
+      </c>
+      <c r="N14">
+        <v>896.8</v>
+      </c>
+      <c r="O14">
+        <v>200</v>
+      </c>
+      <c r="P14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-15.75</v>
       </c>
@@ -745,8 +1344,47 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>12.5</v>
+      </c>
+      <c r="F15">
+        <v>147.4</v>
+      </c>
+      <c r="G15">
+        <v>6.4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J15">
+        <v>80.5</v>
+      </c>
+      <c r="K15">
+        <v>32.1</v>
+      </c>
+      <c r="L15">
+        <v>329.3</v>
+      </c>
+      <c r="M15">
+        <v>59.3</v>
+      </c>
+      <c r="N15">
+        <v>1338.4</v>
+      </c>
+      <c r="O15">
+        <v>200</v>
+      </c>
+      <c r="P15">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-15.75</v>
       </c>
@@ -756,8 +1394,47 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1.3</v>
+      </c>
+      <c r="E16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J16">
+        <v>65.7</v>
+      </c>
+      <c r="K16">
+        <v>29</v>
+      </c>
+      <c r="L16">
+        <v>220.4</v>
+      </c>
+      <c r="M16">
+        <v>72.7</v>
+      </c>
+      <c r="N16">
+        <v>811.4</v>
+      </c>
+      <c r="O16">
+        <v>200</v>
+      </c>
+      <c r="P16">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-15.75</v>
       </c>
@@ -767,8 +1444,47 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>0.9</v>
+      </c>
+      <c r="E17">
+        <v>12.5</v>
+      </c>
+      <c r="F17">
+        <v>147.4</v>
+      </c>
+      <c r="G17">
+        <v>6.3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J17">
+        <v>89</v>
+      </c>
+      <c r="K17">
+        <v>29</v>
+      </c>
+      <c r="L17">
+        <v>243.7</v>
+      </c>
+      <c r="M17">
+        <v>89</v>
+      </c>
+      <c r="N17">
+        <v>896.8</v>
+      </c>
+      <c r="O17">
+        <v>200</v>
+      </c>
+      <c r="P17">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-15.75</v>
       </c>
@@ -778,8 +1494,47 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>0.7</v>
+      </c>
+      <c r="E18">
+        <v>13.9</v>
+      </c>
+      <c r="F18">
+        <v>163</v>
+      </c>
+      <c r="G18">
+        <v>5.8</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18">
+        <v>2.7</v>
+      </c>
+      <c r="J18">
+        <v>80.5</v>
+      </c>
+      <c r="K18">
+        <v>17.2</v>
+      </c>
+      <c r="L18">
+        <v>180.3</v>
+      </c>
+      <c r="M18">
+        <v>163</v>
+      </c>
+      <c r="N18">
+        <v>896.8</v>
+      </c>
+      <c r="O18">
+        <v>200</v>
+      </c>
+      <c r="P18">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-15.75</v>
       </c>
@@ -789,8 +1544,47 @@
       <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>12.5</v>
+      </c>
+      <c r="F19">
+        <v>147.4</v>
+      </c>
+      <c r="G19">
+        <v>5.8</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>2.7</v>
+      </c>
+      <c r="J19">
+        <v>72.7</v>
+      </c>
+      <c r="K19">
+        <v>17.2</v>
+      </c>
+      <c r="L19">
+        <v>163</v>
+      </c>
+      <c r="M19">
+        <v>243.7</v>
+      </c>
+      <c r="N19">
+        <v>664.1</v>
+      </c>
+      <c r="O19">
+        <v>200</v>
+      </c>
+      <c r="P19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-15.25</v>
       </c>
@@ -800,8 +1594,47 @@
       <c r="C20" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>0.9</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="G20">
+        <v>11.2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>80.2</v>
+      </c>
+      <c r="K20">
+        <v>26.1</v>
+      </c>
+      <c r="L20">
+        <v>269.39999999999998</v>
+      </c>
+      <c r="M20">
+        <v>108.9</v>
+      </c>
+      <c r="N20">
+        <v>991.3</v>
+      </c>
+      <c r="O20">
+        <v>200</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-15.25</v>
       </c>
@@ -811,8 +1644,47 @@
       <c r="C21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1.4</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="G21">
+        <v>5.6</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>1.7</v>
+      </c>
+      <c r="J21">
+        <v>65.7</v>
+      </c>
+      <c r="K21">
+        <v>35.6</v>
+      </c>
+      <c r="L21">
+        <v>120.5</v>
+      </c>
+      <c r="M21">
+        <v>120.5</v>
+      </c>
+      <c r="N21">
+        <v>600.79999999999995</v>
+      </c>
+      <c r="O21">
+        <v>200</v>
+      </c>
+      <c r="P21">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-15.25</v>
       </c>
@@ -822,8 +1694,47 @@
       <c r="C22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E22">
+        <v>9</v>
+      </c>
+      <c r="F22">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="G22">
+        <v>5.6</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>2.7</v>
+      </c>
+      <c r="J22">
+        <v>65.7</v>
+      </c>
+      <c r="K22">
+        <v>29</v>
+      </c>
+      <c r="L22">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="M22">
+        <v>147.4</v>
+      </c>
+      <c r="N22">
+        <v>543.6</v>
+      </c>
+      <c r="O22">
+        <v>200</v>
+      </c>
+      <c r="P22">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-15.25</v>
       </c>
@@ -833,8 +1744,47 @@
       <c r="C23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>9</v>
+      </c>
+      <c r="F23">
+        <v>147.4</v>
+      </c>
+      <c r="G23">
+        <v>5.8</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>3.5</v>
+      </c>
+      <c r="J23">
+        <v>65.7</v>
+      </c>
+      <c r="K23">
+        <v>26.1</v>
+      </c>
+      <c r="L23">
+        <v>220.4</v>
+      </c>
+      <c r="M23">
+        <v>180.3</v>
+      </c>
+      <c r="N23">
+        <v>734.1</v>
+      </c>
+      <c r="O23">
+        <v>200</v>
+      </c>
+      <c r="P23">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-15.25</v>
       </c>
@@ -844,8 +1794,44 @@
       <c r="C24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>0.9</v>
+      </c>
+      <c r="E24">
+        <v>13.9</v>
+      </c>
+      <c r="F24">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24">
+        <v>1.7</v>
+      </c>
+      <c r="J24">
+        <v>80.5</v>
+      </c>
+      <c r="K24">
+        <v>26.1</v>
+      </c>
+      <c r="L24">
+        <v>199.3</v>
+      </c>
+      <c r="M24">
+        <v>147.4</v>
+      </c>
+      <c r="N24">
+        <v>811.4</v>
+      </c>
+      <c r="O24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-15.25</v>
       </c>
@@ -856,7 +1842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-14.75</v>
       </c>
@@ -866,8 +1852,47 @@
       <c r="C26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>0.9</v>
+      </c>
+      <c r="E26">
+        <v>11.2</v>
+      </c>
+      <c r="F26">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="G26">
+        <v>5.9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>1.5</v>
+      </c>
+      <c r="J26">
+        <v>80.5</v>
+      </c>
+      <c r="K26">
+        <v>29</v>
+      </c>
+      <c r="L26">
+        <v>180.3</v>
+      </c>
+      <c r="M26">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="N26">
+        <v>664.1</v>
+      </c>
+      <c r="O26">
+        <v>200</v>
+      </c>
+      <c r="P26">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-14.75</v>
       </c>
@@ -877,8 +1902,47 @@
       <c r="C27" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>0.7</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="G27">
+        <v>5.8</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>1.2</v>
+      </c>
+      <c r="J27">
+        <v>65.7</v>
+      </c>
+      <c r="K27">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="L27">
+        <v>120.5</v>
+      </c>
+      <c r="M27">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="N27">
+        <v>543.6</v>
+      </c>
+      <c r="O27">
+        <v>200</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-14.75</v>
       </c>
@@ -888,8 +1952,47 @@
       <c r="C28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="G28">
+        <v>6.1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>72.7</v>
+      </c>
+      <c r="K28">
+        <v>29</v>
+      </c>
+      <c r="L28">
+        <v>220.4</v>
+      </c>
+      <c r="M28">
+        <v>147.4</v>
+      </c>
+      <c r="N28">
+        <v>811.4</v>
+      </c>
+      <c r="O28">
+        <v>200</v>
+      </c>
+      <c r="P28">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-14.75</v>
       </c>
@@ -899,8 +2002,17 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>0.6</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-14.75</v>
       </c>
@@ -911,7 +2023,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-14.75</v>
       </c>
@@ -922,7 +2034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-14.25</v>
       </c>
